--- a/Output/Thomson_1993 Thomson 1993 OS DTIC_IFN parameters.xlsx
+++ b/Output/Thomson_1993 Thomson 1993 OS DTIC_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.80076969518453</v>
+        <v>-2.72194870874295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199420834984694</v>
+        <v>0.163891712200428</v>
       </c>
       <c r="D2" t="n">
         <v>544.440830491193</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.300144465918335</v>
+        <v>0.255836150826446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.135723151780683</v>
+        <v>0.118697956862633</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.39272083727114</v>
+        <v>2.29516138426015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.265967582835733</v>
+        <v>0.222364136608754</v>
       </c>
       <c r="D2" t="n">
         <v>533.110182241469</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.21578962659053</v>
+        <v>-1.17781611095422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119222995723348</v>
+        <v>0.104923760248021</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.99064811632014</v>
+        <v>-1.97028949193194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0821751582283421</v>
+        <v>0.0801902518794047</v>
       </c>
       <c r="D2" t="n">
         <v>529.523164244445</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.20498659844789</v>
+        <v>2.12084194642728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237363083214124</v>
+        <v>0.213035641702335</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.34740021745688</v>
+        <v>-2.29936955689108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126118366223994</v>
+        <v>0.105835268383319</v>
       </c>
       <c r="D2" t="n">
         <v>551.793745145718</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00794657992825708</v>
+        <v>0.00178324955458855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0201871014722952</v>
+        <v>0.0170697952170677</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0397686694259927</v>
+        <v>0.026860493327988</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0225109028945209</v>
+        <v>-0.0149839404293542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0225109028945209</v>
+        <v>-0.0149839404293542</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0184207739292822</v>
+        <v>0.0140892049633635</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0707387551194827</v>
+        <v>0.0494458092497564</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0289436015331549</v>
+        <v>-0.0206429316639446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0289436015331549</v>
+        <v>-0.0206429316639446</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0142141227092495</v>
+        <v>0.0110089954645841</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00675275662985306</v>
+        <v>0.00643047649648237</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00363605265518199</v>
+        <v>-0.00257506918792403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00363605265518199</v>
+        <v>-0.00257506918792403</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0563412332729153</v>
+        <v>0.0453841846355257</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0159058422990094</v>
+        <v>0.0112011040337692</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0017874632243433</v>
+        <v>-0.0010767979983474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0017874632243433</v>
+        <v>-0.0010767979983474</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000407519065852742</v>
+        <v>0.000291377908752626</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Thomson_1993 Thomson 1993 OS DTIC_IFN parameters.xlsx
+++ b/Output/Thomson_1993 Thomson 1993 OS DTIC_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.72194870874295</v>
+        <v>-2.80076969518453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163891712200428</v>
+        <v>0.199420834984694</v>
       </c>
       <c r="D2" t="n">
         <v>544.440830491193</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.255836150826446</v>
+        <v>0.300144465918335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118697956862633</v>
+        <v>0.135723151780683</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.29516138426015</v>
+        <v>2.39272083727114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222364136608754</v>
+        <v>0.265967582835733</v>
       </c>
       <c r="D2" t="n">
         <v>533.110182241469</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.17781611095422</v>
+        <v>-1.21578962659053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104923760248021</v>
+        <v>0.119222995723348</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.97028949193194</v>
+        <v>-1.99064811632014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0801902518794047</v>
+        <v>0.0821751582283421</v>
       </c>
       <c r="D2" t="n">
         <v>529.523164244445</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.12084194642728</v>
+        <v>0.785020862239596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213035641702335</v>
+        <v>0.106565176953077</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.29936955689108</v>
+        <v>-2.34740021745688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105835268383319</v>
+        <v>0.126118366223994</v>
       </c>
       <c r="D2" t="n">
         <v>551.793745145718</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00178324955458855</v>
+        <v>0.00794657992825708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0170697952170677</v>
+        <v>0.0201871014722952</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.026860493327988</v>
+        <v>0.0397686694259927</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0149839404293542</v>
+        <v>-0.0225109028945209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0149839404293542</v>
+        <v>-0.0225109028945209</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0140892049633635</v>
+        <v>0.0184207739292822</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0494458092497564</v>
+        <v>0.0707387551194827</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0206429316639446</v>
+        <v>-0.0289436015331549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0206429316639446</v>
+        <v>-0.0289436015331549</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0110089954645841</v>
+        <v>0.0142141227092495</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00643047649648237</v>
+        <v>0.00675275662985306</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00257506918792403</v>
+        <v>-0.00158573335259087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00257506918792403</v>
+        <v>-0.00158573335259087</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0453841846355257</v>
+        <v>0.0113561369390407</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0112011040337692</v>
+        <v>0.0159058422990094</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0010767979983474</v>
+        <v>-0.0017874632243433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0010767979983474</v>
+        <v>-0.0017874632243433</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000291377908752626</v>
+        <v>0.000407519065852742</v>
       </c>
     </row>
   </sheetData>
